--- a/Sem8/DataVisualisation/VisualisationUsingExcel.xlsx
+++ b/Sem8/DataVisualisation/VisualisationUsingExcel.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\collegeThings\Sem8\DataVisualisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4081B582-CCCC-47B6-BEE4-9D3604232CE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0864EEC-F437-42BB-9025-351D3AFF0298}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="1" xr2:uid="{E89DA565-DE0D-465B-9C79-C1FAED9EE0F3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" activeTab="2" xr2:uid="{E89DA565-DE0D-465B-9C79-C1FAED9EE0F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$138:$A$147</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$137</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$138:$B$147</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="180">
   <si>
     <t>Exercise 1</t>
   </si>
@@ -386,13 +392,193 @@
   </si>
   <si>
     <t>Wensleydale</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Pounds</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Crunchie</t>
+  </si>
+  <si>
+    <t>Mars Bar</t>
+  </si>
+  <si>
+    <t>Yorkie</t>
+  </si>
+  <si>
+    <t>Dairy Crunch</t>
+  </si>
+  <si>
+    <t>Cadburys Dairy Milk</t>
+  </si>
+  <si>
+    <t>Snickers</t>
+  </si>
+  <si>
+    <t>Hershey Bar</t>
+  </si>
+  <si>
+    <t>Lindt Lindor Bar</t>
+  </si>
+  <si>
+    <t>KitKat</t>
+  </si>
+  <si>
+    <t>Dime Bar</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population </t>
+  </si>
+  <si>
+    <t>(Urban - City Limits)</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Mumbai (Bombay)</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Buenos Aires</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Dilli (Delhi)</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Moscow</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>Korea (South)</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Jenny</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Maria Chem Mark</t>
+  </si>
+  <si>
+    <t>Brad Math Mark</t>
+  </si>
+  <si>
+    <t>Only considering math</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,8 +649,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,8 +702,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -608,11 +839,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -645,12 +894,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -676,15 +919,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,9 +951,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1902,6 +2188,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2392,6 +2685,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2882,6 +3182,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -3162,6 +3469,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-733D-4741-A26A-CDC1FC769A76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3182,6 +3494,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-733D-4741-A26A-CDC1FC769A76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3202,6 +3519,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-733D-4741-A26A-CDC1FC769A76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3222,6 +3544,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-733D-4741-A26A-CDC1FC769A76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3242,6 +3569,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-733D-4741-A26A-CDC1FC769A76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3262,6 +3594,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-733D-4741-A26A-CDC1FC769A76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3284,6 +3621,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-733D-4741-A26A-CDC1FC769A76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3306,6 +3648,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-733D-4741-A26A-CDC1FC769A76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3328,6 +3675,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-733D-4741-A26A-CDC1FC769A76}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3692,6 +4044,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F990-46CC-B154-EAA2EBC447FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3716,6 +4073,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F990-46CC-B154-EAA2EBC447FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3740,6 +4102,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F990-46CC-B154-EAA2EBC447FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3764,6 +4131,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F990-46CC-B154-EAA2EBC447FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3788,6 +4160,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-F990-46CC-B154-EAA2EBC447FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3812,6 +4189,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-F990-46CC-B154-EAA2EBC447FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3838,6 +4220,11 @@
               </a:scene3d>
               <a:sp3d prstMaterial="matte"/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-F990-46CC-B154-EAA2EBC447FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4018,6 +4405,2473 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Weight Fluctuation over 4 weeks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$71:$A$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$71:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6B6-4C0B-A06B-526DFF033E05}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1157237536"/>
+        <c:axId val="1196829104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1157237536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Day Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1196829104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1196829104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1157237536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="sysDash"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Chocolate Bar Preferences for France and UK</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$104:$A$114</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Crunchie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mars Bar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yorkie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dairy Crunch</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cadburys Dairy Milk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Snickers</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hershey Bar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lindt Lindor Bar</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>KitKat</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dime Bar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$104:$B$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-815F-4A92-BF74-65C5104F6901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>France</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$104:$A$114</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Crunchie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mars Bar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Yorkie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dairy Crunch</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cadburys Dairy Milk</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Snickers</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Hershey Bar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lindt Lindor Bar</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>KitKat</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Dime Bar</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$104:$C$114</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-815F-4A92-BF74-65C5104F6901}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1263942352"/>
+        <c:axId val="1392462896"/>
+        <c:axId val="1264777952"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>USA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent6">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent6">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:sp3d/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$104:$A$114</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>Crunchie</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Mars Bar</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Yorkie</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Dairy Crunch</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Cadburys Dairy Milk</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Snickers</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Hershey Bar</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Lindt Lindor Bar</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>KitKat</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Dime Bar</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>TOTAL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$D$104:$D$114</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-815F-4A92-BF74-65C5104F6901}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$103</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Germany</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                  <a:sp3d/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$104:$A$114</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>Crunchie</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Mars Bar</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Yorkie</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Dairy Crunch</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Cadburys Dairy Milk</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Snickers</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Hershey Bar</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Lindt Lindor Bar</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>KitKat</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Dime Bar</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>TOTAL</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$E$104:$E$114</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-815F-4A92-BF74-65C5104F6901}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1263942352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Chocoate Bars</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> in Survey</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1392462896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1392462896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number/100</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1263942352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1264777952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1392462896"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$137</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Year</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$138:$A$147</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>23800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$138:$B$147</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-557B-4AB5-B2FB-A7605412AF3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1342497168"/>
+        <c:axId val="1424976368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1342497168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1424976368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1424976368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342497168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$120:$D$121</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Population </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>(Urban - City Limits)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$122:$C$131</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Pakistan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Argentina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Philippines</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Russia</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Korea (South)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$122:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14608512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12691836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11624219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11574205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10927986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10444527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10381222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10349312</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10210295</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9792428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD7B-41CA-ADB1-F4B7024CFF1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="14"/>
+        <c:gapDepth val="144"/>
+        <c:shape val="cone"/>
+        <c:axId val="1324938112"/>
+        <c:axId val="1552943184"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1324938112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1552943184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1552943184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1324938112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4201,6 +7055,160 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
   <cs:axisTitle>
@@ -6342,6 +9350,2080 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="310">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6496,6 +11578,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>122143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395C059F-A589-4F6C-A5D1-277FB8718CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>96370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>16809</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>172570</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A951A2-EF3C-4947-9220-DB0BF432A4A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E5FA32-7EE9-474E-9F0A-0F4534826300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594798E0-7CE4-4009-80DA-E23D6BFFBE74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6803,8 +12029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA13FB8-3DD4-45C7-819D-79BD3BECDCB6}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7268,10 +12494,10 @@
       <c r="B43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="14"/>
+      <c r="D43" s="33"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -7280,11 +12506,11 @@
       <c r="B44" s="7">
         <v>78</v>
       </c>
-      <c r="C44" s="15" t="str">
+      <c r="C44" s="34" t="str">
         <f>IF(B44&gt;=80,"Excellent", IF(B44&gt;=60,"Good","Failed"))</f>
         <v>Good</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="34"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -7293,11 +12519,11 @@
       <c r="B45" s="7">
         <v>85</v>
       </c>
-      <c r="C45" s="15" t="str">
+      <c r="C45" s="34" t="str">
         <f t="shared" ref="C45:C47" si="3">IF(B45&gt;=80,"Excellent", IF(B45&gt;=60,"Good","Failed"))</f>
         <v>Excellent</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="34"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -7306,11 +12532,11 @@
       <c r="B46" s="7">
         <v>44</v>
       </c>
-      <c r="C46" s="15" t="str">
+      <c r="C46" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Failed</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="34"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -7319,11 +12545,11 @@
       <c r="B47" s="7">
         <v>61</v>
       </c>
-      <c r="C47" s="15" t="str">
+      <c r="C47" s="34" t="str">
         <f t="shared" si="3"/>
         <v>Good</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
@@ -7334,30 +12560,30 @@
       <c r="A51" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="16">
         <v>258000000</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="16">
         <v>887436184</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="16">
         <v>629436184</v>
       </c>
       <c r="E52" s="9" t="str">
@@ -7366,16 +12592,16 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="16">
         <v>207000000</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="16">
         <v>553080025</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="16">
         <v>346080025</v>
       </c>
       <c r="E53" s="9" t="str">
@@ -7384,16 +12610,16 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="16">
         <v>204000000</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="16">
         <v>391081192</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="16">
         <v>187081192</v>
       </c>
       <c r="E54" s="9" t="str">
@@ -7402,16 +12628,16 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="16">
         <v>200000000</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="16">
         <v>784024485</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="16">
         <v>584024485</v>
       </c>
       <c r="E55" s="9" t="str">
@@ -7420,16 +12646,16 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="16">
         <v>200000000</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="16">
         <v>1835400000</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="16">
         <v>1635400000</v>
       </c>
       <c r="E56" s="9" t="str">
@@ -7438,16 +12664,16 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="16">
         <v>180000000</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="16">
         <v>748806957</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="16">
         <v>568806957</v>
       </c>
       <c r="E57" s="9" t="str">
@@ -7456,16 +12682,16 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="16">
         <v>175000000</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="16">
         <v>217700000</v>
       </c>
-      <c r="D58" s="18">
+      <c r="D58" s="16">
         <v>42700000</v>
       </c>
       <c r="E58" s="9" t="str">
@@ -7474,16 +12700,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="18">
+      <c r="B59" s="16">
         <v>175000000</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="16">
         <v>120698890</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="16">
         <v>-54301110</v>
       </c>
       <c r="E59" s="9" t="str">
@@ -7492,16 +12718,16 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="16">
         <v>175000000</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="16">
         <v>264246220</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="16">
         <v>89246220</v>
       </c>
       <c r="E60" s="9" t="str">
@@ -7510,16 +12736,16 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="16">
         <v>170000000</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="16">
         <v>433058296</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="16">
         <v>263058296</v>
       </c>
       <c r="E61" s="9" t="str">
@@ -7528,16 +12754,16 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="16">
         <v>170000000</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="16">
         <v>296596043</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="16">
         <v>126596043</v>
       </c>
       <c r="E62" s="9" t="str">
@@ -7546,16 +12772,16 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="16">
         <v>170000000</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="16">
         <v>300150546</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="16">
         <v>130150546</v>
       </c>
       <c r="E63" s="9" t="str">
@@ -7564,16 +12790,16 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="16">
         <v>160000000</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="16">
         <v>733012359</v>
       </c>
-      <c r="D64" s="18">
+      <c r="D64" s="16">
         <v>573012359</v>
       </c>
       <c r="E64" s="9" t="str">
@@ -7582,16 +12808,16 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="16">
         <v>160000000</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="16">
         <v>181674817</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="16">
         <v>21674817</v>
       </c>
       <c r="E65" s="9" t="str">
@@ -7600,16 +12826,16 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="16">
         <v>155000000</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="16">
         <v>167297191</v>
       </c>
-      <c r="D66" s="18">
+      <c r="D66" s="16">
         <v>12297191</v>
       </c>
       <c r="E66" s="9" t="str">
@@ -7618,16 +12844,16 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="16">
         <v>151500000</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="16">
         <v>450500000</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="16">
         <v>299000000</v>
       </c>
       <c r="E67" s="9" t="str">
@@ -7636,16 +12862,16 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="16">
         <v>150000000</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="16">
         <v>892213036</v>
       </c>
-      <c r="D68" s="18">
+      <c r="D68" s="16">
         <v>742213036</v>
       </c>
       <c r="E68" s="9" t="str">
@@ -7654,16 +12880,16 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="16">
         <v>150000000</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="16">
         <v>822828538</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="16">
         <v>672828538</v>
       </c>
       <c r="E69" s="9" t="str">
@@ -7672,16 +12898,16 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="18">
+      <c r="B70" s="16">
         <v>150000000</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="16">
         <v>397501348</v>
       </c>
-      <c r="D70" s="18">
+      <c r="D70" s="16">
         <v>247501348</v>
       </c>
       <c r="E70" s="9" t="str">
@@ -7690,16 +12916,16 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="18">
+      <c r="B71" s="16">
         <v>150000000</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="16">
         <v>497298577</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="16">
         <v>347298577</v>
       </c>
       <c r="E71" s="9" t="str">
@@ -7713,10 +12939,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C75" s="13" t="s">
@@ -7828,10 +13054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2921E2-52E5-4464-AAD4-182254B7AC72}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A79" sqref="A70:A79"/>
+    <sheetView topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7849,89 +13075,89 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="23" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>0.03</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>0.32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>0.39</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>0.21</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>0.06</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>0.17</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>0.19</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>0.12</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>0.21</v>
       </c>
     </row>
@@ -7941,114 +13167,114 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="27" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="28">
         <v>0.17</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="28">
         <v>0.31</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D19" s="28">
         <v>0.18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="28">
         <v>0.2</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="28">
         <v>0.15</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="28">
         <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="28">
         <v>0.04</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="28">
         <v>0.19</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="28">
         <v>0.41</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="28">
         <v>0.34</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="28">
         <v>0.12</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="28">
         <v>0.03</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="28">
         <v>0.17</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="28">
         <v>0.08</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="28">
         <v>0.11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="28">
         <v>0.08</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="28">
         <v>0.15</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="28">
         <v>0.26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -8062,96 +13288,1034 @@
       <c r="B34" s="38"/>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="32">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="32">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="32">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="32">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
+      <c r="A40" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="32">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="32">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="32">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="A44" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="32">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" s="40">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" s="40">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" s="40">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" s="40">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" s="40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" s="40">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="B77" s="40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="B78" s="40">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" s="40">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80" s="40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81" s="40">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>12</v>
+      </c>
+      <c r="B82" s="40">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83" s="40">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84" s="40">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>15</v>
+      </c>
+      <c r="B85" s="40">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86" s="40">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>17</v>
+      </c>
+      <c r="B87" s="40">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>18</v>
+      </c>
+      <c r="B88" s="40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>19</v>
+      </c>
+      <c r="B89" s="40">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>20</v>
+      </c>
+      <c r="B90" s="40">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>21</v>
+      </c>
+      <c r="B91" s="40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>22</v>
+      </c>
+      <c r="B92" s="40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>23</v>
+      </c>
+      <c r="B93" s="40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>24</v>
+      </c>
+      <c r="B94" s="40">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>25</v>
+      </c>
+      <c r="B95" s="40">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>26</v>
+      </c>
+      <c r="B96" s="40">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>27</v>
+      </c>
+      <c r="B97" s="40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>28</v>
+      </c>
+      <c r="B98" s="40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" s="42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="2">
+        <v>12</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2</v>
+      </c>
+      <c r="E104" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="2">
+        <v>25</v>
+      </c>
+      <c r="C105" s="2">
+        <v>7</v>
+      </c>
+      <c r="D105" s="2">
+        <v>11</v>
+      </c>
+      <c r="E105" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="2">
+        <v>8</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2">
+        <v>7</v>
+      </c>
+      <c r="E107" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="2">
+        <v>18</v>
+      </c>
+      <c r="C108" s="2">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2">
+        <v>9</v>
+      </c>
+      <c r="E108" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B109" s="2">
+        <v>6</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1</v>
+      </c>
+      <c r="D109" s="2">
+        <v>11</v>
+      </c>
+      <c r="E109" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2</v>
+      </c>
+      <c r="C110" s="2">
+        <v>8</v>
+      </c>
+      <c r="D110" s="2">
+        <v>38</v>
+      </c>
+      <c r="E110" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" s="2">
+        <v>4</v>
+      </c>
+      <c r="C111" s="2">
+        <v>39</v>
+      </c>
+      <c r="D111" s="2">
+        <v>5</v>
+      </c>
+      <c r="E111" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="2">
+        <v>20</v>
+      </c>
+      <c r="C112" s="2">
+        <v>17</v>
+      </c>
+      <c r="D112" s="2">
+        <v>14</v>
+      </c>
+      <c r="E112" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" s="2">
+        <v>4</v>
+      </c>
+      <c r="C113" s="2">
+        <v>11</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2</v>
+      </c>
+      <c r="E113" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B114" s="44">
+        <v>100</v>
+      </c>
+      <c r="C114" s="44">
+        <v>100</v>
+      </c>
+      <c r="D114" s="44">
+        <v>100</v>
+      </c>
+      <c r="E114" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C120" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120" s="45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="32">
+        <v>1</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" s="46">
+        <v>14608512</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="32">
+        <v>2</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D123" s="46">
+        <v>12691836</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="32">
+        <v>3</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D124" s="46">
+        <v>11624219</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="32">
+        <v>4</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D125" s="46">
+        <v>11574205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="32">
+        <v>5</v>
+      </c>
+      <c r="B126" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126" s="46">
+        <v>10927986</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="32">
+        <v>6</v>
+      </c>
+      <c r="B127" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D127" s="46">
+        <v>10444527</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="32">
+        <v>7</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" s="46">
+        <v>10381222</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="32">
+        <v>8</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D129" s="46">
+        <v>10349312</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="32">
+        <v>9</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C130" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D130" s="46">
+        <v>10210295</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="32">
+        <v>10</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D131" s="46">
+        <v>9792428</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B137" s="48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="49">
+        <v>23800</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="49">
+        <v>26400</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="49">
+        <v>23700</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="49">
+        <v>31900</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="49">
+        <v>28500</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="49">
+        <v>32700</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="49">
+        <v>35700</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="49">
+        <v>29500</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="49">
+        <v>37500</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="49">
+        <v>39700</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2017</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAB4152-2E00-46BC-BA48-62F828E4C6A4}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>66</v>
+      </c>
+      <c r="E4">
+        <v>49</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="51">
+        <f>VLOOKUP("Brad", $A$4:$E$11,2,0)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>74</v>
+      </c>
+      <c r="E5">
+        <v>90</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="51">
+        <f>VLOOKUP("Maria",$A$4:$E$11,4,0)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>91</v>
+      </c>
+      <c r="E6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>56</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="51">
+        <f>VLOOKUP(G9,$A$4:$E$11,MATCH(H8,$A$3:$E$3,0),0)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="51"/>
+      <c r="H12" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" s="51">
+        <f>VLOOKUP(G13,$A$4:$E$11,2,0)</f>
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>